--- a/YGA_SIEM_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU LAST .xlsx
+++ b/YGA_SIEM_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU LAST .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyaksares/Developer/GitHub/SIEM_Project/YGA_SIEM_PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6113ED-C8A7-E945-9FF3-F320A4D1884C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB7A3B-9381-2847-AB32-08D42FAEB93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8361E2F4-3CE9-4162-BC76-9D531C22DA5E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>İP NO</t>
   </si>
@@ -39,12 +39,6 @@
     <t xml:space="preserve">Sisteme entegre edilecek uygulamalar belirlenecek, bu uygulamaların birbiriyle iletişimi ve sisteme entegrasyonu analiz edilecek. Ayrıca proje mimarisi detaylı olarak tasarlanacak ve belgelendirilecek.	</t>
   </si>
   <si>
-    <t>6, 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kullanıcı arayüzü için prototipler geliştirilecek, bu prototipler test edilecek ve kullanıcı geri bildirimleri alınarak onaylanacak.	</t>
-  </si>
-  <si>
     <t>3, 8</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tamamlanmış uygulama ve entegrasyon analizi	</t>
-  </si>
-  <si>
-    <t>1, 3</t>
   </si>
   <si>
     <t>2, 6</t>
@@ -93,9 +84,6 @@
 -Web Uygulama Güvenlik Duvarı, DB Güvenlik Duvarı, E-posta Güvenlik Duvarı bileşenlerinin geliştirilmesi ve sisteme entegrasyonu.	</t>
   </si>
   <si>
-    <t xml:space="preserve">Mevcut durum analizinin yapılması, gereksinimlerin, sisteme entegre edilecek uygulamaların ve mimari tasarımın planlanması	</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sarf malzemelerin temin edilmesi, süre ve AWS bütçe belirlenmesi. Temel güvenlik altyapısının oluşturulması ve entegrasyonu	</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">Arayüz prototipinin geliştirilmesi. Güvenlik duvarlarının geliştirilmesi ve entegrasyonu	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70 - Tamamlanmış arayüz prototipi, Tamamlanmış malzeme temini ve bütçe belirleme dökümanı	</t>
   </si>
 </sst>
 </file>
@@ -339,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -445,15 +430,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -778,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724E3ABB-9925-D942-B392-CEF72D7BB712}">
   <dimension ref="C6:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -788,20 +764,20 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C8" s="22" t="s">
@@ -865,10 +841,10 @@
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -927,10 +903,10 @@
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -988,73 +964,73 @@
       <c r="R16" s="21"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C17" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35">
-        <v>10</v>
-      </c>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="13">
+        <v>20</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="18"/>
     </row>
     <row r="19" spans="3:18" ht="142" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="21"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1062,14 +1038,14 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="13" t="s">
-        <v>8</v>
+      <c r="K20" s="13">
+        <v>100</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
       <c r="N20" s="15"/>
       <c r="O20" s="13">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
@@ -1112,11 +1088,11 @@
       <c r="R22" s="21"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>6</v>
+      <c r="C23" s="1">
+        <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1131,7 +1107,7 @@
       <c r="M23" s="14"/>
       <c r="N23" s="15"/>
       <c r="O23" s="13">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
@@ -1174,8 +1150,8 @@
       <c r="R25" s="21"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C26" s="1">
-        <v>9</v>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>15</v>
@@ -1193,7 +1169,7 @@
       <c r="M26" s="14"/>
       <c r="N26" s="15"/>
       <c r="O26" s="13">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
@@ -1237,10 +1213,10 @@
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1255,7 +1231,7 @@
       <c r="M29" s="14"/>
       <c r="N29" s="15"/>
       <c r="O29" s="13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
@@ -1299,10 +1275,10 @@
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1317,7 +1293,7 @@
       <c r="M32" s="14"/>
       <c r="N32" s="15"/>
       <c r="O32" s="13">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
@@ -1359,130 +1335,10 @@
       <c r="Q34" s="20"/>
       <c r="R34" s="21"/>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="13">
-        <v>100</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="13">
-        <v>20</v>
-      </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="15"/>
-    </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C36" s="2"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="18"/>
-    </row>
-    <row r="37" spans="3:18" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="3"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="21"/>
-    </row>
-    <row r="38" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="13">
-        <v>100</v>
-      </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="13">
-        <v>15</v>
-      </c>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="15"/>
-    </row>
-    <row r="39" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="2"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="18"/>
-    </row>
-    <row r="40" spans="3:18" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="3"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="21"/>
-    </row>
+    <row r="37" spans="3:18" ht="121" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:18" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="3:18" ht="172" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1560,11 +1416,7 @@
     <row r="121" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="124" ht="125" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:J28"/>
-    <mergeCell ref="K26:N28"/>
-    <mergeCell ref="O26:R28"/>
+  <mergeCells count="36">
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:J25"/>
     <mergeCell ref="K23:N25"/>
@@ -1589,6 +1441,10 @@
     <mergeCell ref="D8:J10"/>
     <mergeCell ref="K8:N10"/>
     <mergeCell ref="O8:R10"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:J28"/>
+    <mergeCell ref="K26:N28"/>
+    <mergeCell ref="O26:R28"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="D29:J31"/>
     <mergeCell ref="K29:N31"/>
@@ -1597,14 +1453,6 @@
     <mergeCell ref="D32:J34"/>
     <mergeCell ref="K32:N34"/>
     <mergeCell ref="O32:R34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:J37"/>
-    <mergeCell ref="K35:N37"/>
-    <mergeCell ref="O35:R37"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:J40"/>
-    <mergeCell ref="K38:N40"/>
-    <mergeCell ref="O38:R40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/YGA_SIEM_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU LAST .xlsx
+++ b/YGA_SIEM_PROJECT/BAŞARI ÖLÇÜTLERİ TABLOSU LAST .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siyaksares/Developer/GitHub/SIEM_Project/YGA_SIEM_PROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB7A3B-9381-2847-AB32-08D42FAEB93F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DE2D7-7F68-B841-808F-F63FF338153E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8361E2F4-3CE9-4162-BC76-9D531C22DA5E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8361E2F4-3CE9-4162-BC76-9D531C22DA5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -326,6 +326,12 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,12 +436,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724E3ABB-9925-D942-B392-CEF72D7BB712}">
   <dimension ref="C6:R124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D11:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -764,576 +764,576 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24" t="s">
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="13">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="15">
         <v>90</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="13">
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="15">
         <v>15</v>
       </c>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="18"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="20"/>
     </row>
     <row r="13" spans="3:18" ht="172" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23"/>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="13">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="15">
         <v>100</v>
       </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="13">
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="15">
         <v>50</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="20"/>
     </row>
     <row r="16" spans="3:18" ht="149" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="13" t="s">
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="13">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="15">
         <v>20</v>
       </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="20"/>
     </row>
     <row r="19" spans="3:18" ht="142" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="3"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="21"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="23"/>
     </row>
     <row r="20" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="13">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="15">
         <v>100</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="13">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="15">
         <v>35</v>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C21" s="2"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="3:18" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="3"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
     </row>
     <row r="23" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="13">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="15">
         <v>100</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="13">
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="15">
         <v>10</v>
       </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="17"/>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C24" s="2"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="3:18" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="21"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="23"/>
     </row>
     <row r="26" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="13">
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="15">
         <v>100</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="13">
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="15">
         <v>25</v>
       </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="17"/>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C27" s="2"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="18"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="3:18" ht="121" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="21"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="23"/>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="13">
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="15">
         <v>100</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="13">
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="15">
         <v>20</v>
       </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="15"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="17"/>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C30" s="2"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="18"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="3:18" ht="101" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="3"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="21"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="23"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="13">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="15">
         <v>100</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="13">
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="15">
         <v>15</v>
       </c>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="15"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="17"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C33" s="2"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="18"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="20"/>
     </row>
     <row r="34" spans="3:18" ht="89" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="3"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="21"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="23"/>
     </row>
     <row r="37" spans="3:18" ht="121" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="3:18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1417,6 +1417,34 @@
     <row r="124" ht="125" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:J34"/>
+    <mergeCell ref="K32:N34"/>
+    <mergeCell ref="O32:R34"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:J28"/>
+    <mergeCell ref="K26:N28"/>
+    <mergeCell ref="O26:R28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:J31"/>
+    <mergeCell ref="K29:N31"/>
+    <mergeCell ref="O29:R31"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:J13"/>
+    <mergeCell ref="K11:N13"/>
+    <mergeCell ref="O11:R13"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:J10"/>
+    <mergeCell ref="K8:N10"/>
+    <mergeCell ref="O8:R10"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:J19"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="O17:R19"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:J16"/>
+    <mergeCell ref="K14:N16"/>
+    <mergeCell ref="O14:R16"/>
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:J25"/>
     <mergeCell ref="K23:N25"/>
@@ -1425,34 +1453,6 @@
     <mergeCell ref="D20:J22"/>
     <mergeCell ref="K20:N22"/>
     <mergeCell ref="O20:R22"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:J19"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="O17:R19"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:J16"/>
-    <mergeCell ref="K14:N16"/>
-    <mergeCell ref="O14:R16"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:J13"/>
-    <mergeCell ref="K11:N13"/>
-    <mergeCell ref="O11:R13"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:J10"/>
-    <mergeCell ref="K8:N10"/>
-    <mergeCell ref="O8:R10"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:J28"/>
-    <mergeCell ref="K26:N28"/>
-    <mergeCell ref="O26:R28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:J31"/>
-    <mergeCell ref="K29:N31"/>
-    <mergeCell ref="O29:R31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:J34"/>
-    <mergeCell ref="K32:N34"/>
-    <mergeCell ref="O32:R34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
